--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHan_DeXuat_ChuyenTiep_Report.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHan_DeXuat_ChuyenTiep_Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dungnv5\CodeWeb\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\KeHoachTrungHan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prj_web\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\KeHoachTrungHan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,6 +18,7 @@
   <definedNames>
     <definedName name="__dv__">#REF!</definedName>
     <definedName name="__Items__">KHTH!$12:$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">KHTH!$A$1:$U$29</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">KHTH!$6:$11</definedName>
     <definedName name="Z_FA42EA70_C459_4080_AD27_45492E92C8F8_.wvu.PrintTitles" localSheetId="0" hidden="1">KHTH!$12:$12</definedName>
     <definedName name="Z_FA42EA70_C459_4080_AD27_45492E92C8F8_.wvu.Rows" localSheetId="0" hidden="1">KHTH!#REF!</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="120">
   <si>
     <t>BỘ QUỐC PHÒNG</t>
   </si>
@@ -136,18 +137,6 @@
     <t>&lt;#if(&lt;#Items.IsHangCha&gt;=true;&lt;#format cell(Black)&gt;;)&gt;</t>
   </si>
   <si>
-    <t>&lt;#Items.STenDuAn&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.SDiaDiem&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.SThoiGianThucHien&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.SGhiChu&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>&lt;#Header1&gt;</t>
   </si>
   <si>
@@ -256,111 +245,165 @@
     <t>(20)</t>
   </si>
   <si>
-    <t>&lt;#Items.SSoQuyetDinhNgayQuyetDinh&gt;</t>
-  </si>
-  <si>
     <t>TỔNG SỐ (&lt;#Muc&gt;)</t>
   </si>
   <si>
     <t>Mẫu số 01</t>
   </si>
   <si>
-    <t>&lt;#FHanMucDauTuSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FHanMucDauTuQPSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FHanMucDauTuNNSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FHanMucDauTuDPSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FHanMucDauTuOrtherSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#TongLuyKeSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#LuyKeVonNSQPDaBoTriSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#LuyKeVonNSQPDeNghiBoTriSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FTongSoSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FGiaTriNamThuNhatSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FGiaTriNamThuHaiSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FGiaTriNamThuBaSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FGiaTriNamThuTuSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FGiaTriNamThuNamSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FHanMucDauTu&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FHanMucDauTuQP&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FHanMucDauTuNN&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FHanMucDauTuDP&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FHanMucDauTuOrther&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.TongLuyKe&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.LuyKeVonNSQPDaBoTri&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.LuyKeVonNSQPDeNghiBoTri&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FTongSo&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriNamThuNhat&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriNamThuHai&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriNamThuBa&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriNamThuTu&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriNamThuNam&gt;&lt;#AltFormat&gt;</t>
+    <t>&lt;#ThuaLenh1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh5&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh5&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten5&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#FHanMucDauTuSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#FHanMucDauTuQPSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#FHanMucDauTuNNSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#FHanMucDauTuDPSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#FHanMucDauTuOrtherSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#TongLuyKeSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#LuyKeVonNSQPDaBoTriSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#LuyKeVonNSQPDeNghiBoTriSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#FTongSoSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#FGiaTriNamThuNhatSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#FGiaTriNamThuHaiSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#FGiaTriNamThuBaSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#FGiaTriNamThuTuSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#FGiaTriNamThuNamSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.STenDuAn&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.SDiaDiem&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.SThoiGianThucHien&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.SSoQuyetDinhNgayQuyetDinh&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FHanMucDauTu&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FHanMucDauTuQP&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FHanMucDauTuNN&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FHanMucDauTuDP&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FHanMucDauTuOrther&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.TongLuyKe&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.LuyKeVonNSQPDaBoTri&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.LuyKeVonNSQPDeNghiBoTri&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FTongSo&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FGiaTriNamThuNhat&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FGiaTriNamThuHai&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FGiaTriNamThuBa&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FGiaTriNamThuTu&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FGiaTriNamThuNam&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.SGhiChu&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000;[Red]#,##0.000"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -389,12 +432,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="2"/>
@@ -514,6 +551,20 @@
       <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -735,177 +786,190 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -938,55 +1002,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Connector 1"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="352425" y="733425"/>
-          <a:ext cx="1657350" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1258,8 +1273,8 @@
   </sheetPr>
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="J4" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1291,104 +1306,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-    </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
@@ -1407,136 +1421,136 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="57" t="s">
+      <c r="Q5" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+    </row>
+    <row r="6" spans="1:28" s="7" customFormat="1" ht="42" customHeight="1">
+      <c r="A6" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="57"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="55"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="55"/>
+      <c r="N7" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+    </row>
+    <row r="8" spans="1:28" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="55"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-    </row>
-    <row r="6" spans="1:28" s="7" customFormat="1" ht="42" customHeight="1">
-      <c r="A6" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="50"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="50" t="s">
+      <c r="G8" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+    </row>
+    <row r="9" spans="1:28" s="8" customFormat="1" ht="108.75" customHeight="1">
+      <c r="A9" s="55"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="50"/>
-      <c r="N7" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-    </row>
-    <row r="8" spans="1:28" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-    </row>
-    <row r="9" spans="1:28" s="8" customFormat="1" ht="108.75" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="22" t="s">
+      <c r="K9" s="66"/>
+      <c r="L9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="56"/>
+      <c r="N9" s="66"/>
       <c r="O9" s="22" t="s">
         <v>4</v>
       </c>
@@ -1552,199 +1566,199 @@
       <c r="S9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="50"/>
+      <c r="T9" s="55"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="10"/>
     </row>
-    <row r="10" spans="1:28" s="20" customFormat="1" ht="31.5">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:28" s="20" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="F10" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="H10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="I10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="J10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="K10" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R10" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O10" s="28" t="s">
+      <c r="S10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="28" t="s">
+      <c r="T10" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="R10" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="S10" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="T10" s="27" t="s">
-        <v>73</v>
       </c>
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
       <c r="AA10" s="21"/>
       <c r="AB10" s="21"/>
     </row>
-    <row r="11" spans="1:28" s="31" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="L11" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="P11" s="39" t="s">
+    <row r="11" spans="1:28" s="28" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="Q11" s="39" t="s">
+      <c r="G11" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="R11" s="39" t="s">
+      <c r="H11" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="S11" s="39" t="s">
+      <c r="I11" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="T11" s="29"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-    </row>
-    <row r="12" spans="1:28" s="35" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A12" s="33" t="s">
+      <c r="J11" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="S11" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="T11" s="26"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+    </row>
+    <row r="12" spans="1:28" s="32" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="K12" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="O12" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="P12" s="40" t="s">
+      <c r="B12" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="Q12" s="40" t="s">
+      <c r="C12" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="R12" s="40" t="s">
+      <c r="D12" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="S12" s="40" t="s">
+      <c r="E12" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="T12" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="37"/>
+      <c r="F12" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="S12" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="T12" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="34"/>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="5"/>
@@ -1768,152 +1782,324 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="O18" s="25"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="O19" s="24"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="O20" s="26"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:15">
+    <row r="15" spans="1:28" ht="16.5">
+      <c r="A15" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+    </row>
+    <row r="16" spans="1:28" ht="16.5">
+      <c r="A16" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+    </row>
+    <row r="17" spans="1:21" ht="16.5">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+    </row>
+    <row r="18" spans="1:21" ht="16.5">
+      <c r="A18" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+    </row>
+    <row r="19" spans="1:21" ht="16.5">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+    </row>
+    <row r="20" spans="1:21" ht="16.5">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+    </row>
+    <row r="21" spans="1:21" ht="16.5">
+      <c r="A21" s="40"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+    </row>
+    <row r="22" spans="1:21" ht="16.5">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+    </row>
+    <row r="23" spans="1:21" ht="16.5">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+    </row>
+    <row r="24" spans="1:21" ht="16.5">
+      <c r="A24" s="42"/>
+      <c r="B24" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="39"/>
+    </row>
+    <row r="25" spans="1:21" ht="16.5">
+      <c r="A25" s="42"/>
+      <c r="B25" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="39"/>
+    </row>
+    <row r="26" spans="1:21" ht="16.5">
+      <c r="A26" s="42"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="40"/>
+    </row>
+    <row r="27" spans="1:21" ht="16.5">
+      <c r="A27" s="42"/>
+      <c r="B27" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="38"/>
+    </row>
+    <row r="28" spans="1:21">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1923,7 +2109,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:21">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1933,7 +2119,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:21">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1943,7 +2129,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:21">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1953,7 +2139,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:21">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2085,11 +2271,7 @@
     </row>
   </sheetData>
   <dataConsolidate topLabels="1"/>
-  <mergeCells count="26">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:K9"/>
+  <mergeCells count="40">
     <mergeCell ref="L7:M8"/>
     <mergeCell ref="A4:T4"/>
     <mergeCell ref="T6:T9"/>
@@ -2103,26 +2285,43 @@
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="C6:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:K9"/>
     <mergeCell ref="D3:Q3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R2:T2"/>
     <mergeCell ref="D1:Q1"/>
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M15:U15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="M25:T25"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="M27:T27"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="M24:T24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Times New Roman,Italic"Trang &amp;P</oddHeader>
   </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="20" max="1048575" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
